--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>28.87327483897955</v>
+        <v>3.229285597997556</v>
       </c>
       <c r="R2">
-        <v>259.859473550816</v>
+        <v>29.063570381978</v>
       </c>
       <c r="S2">
-        <v>0.000512936525695044</v>
+        <v>6.165980365928102E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005129365256950441</v>
+        <v>6.165980365928104E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>2315.271982556975</v>
+        <v>657.6094073941372</v>
       </c>
       <c r="R3">
-        <v>20837.44784301277</v>
+        <v>5918.484666547234</v>
       </c>
       <c r="S3">
-        <v>0.04113103114886649</v>
+        <v>0.01255635827613453</v>
       </c>
       <c r="T3">
-        <v>0.04113103114886649</v>
+        <v>0.01255635827613453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>481.6309911726277</v>
+        <v>125.65356481492</v>
       </c>
       <c r="R4">
-        <v>4334.67892055365</v>
+        <v>1130.88208333428</v>
       </c>
       <c r="S4">
-        <v>0.008556221234233894</v>
+        <v>0.00239922233585689</v>
       </c>
       <c r="T4">
-        <v>0.008556221234233894</v>
+        <v>0.00239922233585689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>508.8257900104551</v>
+        <v>200.361154482186</v>
       </c>
       <c r="R5">
-        <v>4579.432110094097</v>
+        <v>1803.250390339673</v>
       </c>
       <c r="S5">
-        <v>0.009039339471103204</v>
+        <v>0.003825684991745289</v>
       </c>
       <c r="T5">
-        <v>0.009039339471103205</v>
+        <v>0.003825684991745289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>40801.40206414012</v>
@@ -818,10 +818,10 @@
         <v>367212.6185772611</v>
       </c>
       <c r="S6">
-        <v>0.724840861834372</v>
+        <v>0.7790597529863222</v>
       </c>
       <c r="T6">
-        <v>0.7248408618343721</v>
+        <v>0.7790597529863222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>8487.650636916531</v>
+        <v>7796.180469987221</v>
       </c>
       <c r="R7">
-        <v>76388.85573224878</v>
+        <v>70165.62422988498</v>
       </c>
       <c r="S7">
-        <v>0.1507839361240659</v>
+        <v>0.1488598460816897</v>
       </c>
       <c r="T7">
-        <v>0.1507839361240659</v>
+        <v>0.1488598460816897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>37.46360817231466</v>
+        <v>11.44810952125011</v>
       </c>
       <c r="R8">
-        <v>337.172473550832</v>
+        <v>103.032985691251</v>
       </c>
       <c r="S8">
-        <v>0.0006655446298722203</v>
+        <v>0.0002185895808620771</v>
       </c>
       <c r="T8">
-        <v>0.0006655446298722204</v>
+        <v>0.0002185895808620771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>3004.108222935413</v>
+        <v>2331.284827430789</v>
       </c>
       <c r="R9">
-        <v>27036.97400641872</v>
+        <v>20981.5634468771</v>
       </c>
       <c r="S9">
-        <v>0.05336827371601548</v>
+        <v>0.04451342576276901</v>
       </c>
       <c r="T9">
-        <v>0.05336827371601548</v>
+        <v>0.04451342576276901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>624.9251197711582</v>
+        <v>445.45325214614</v>
       </c>
       <c r="R10">
-        <v>5624.326077940425</v>
+        <v>4009.07926931526</v>
       </c>
       <c r="S10">
-        <v>0.01110185531577567</v>
+        <v>0.008505460180961048</v>
       </c>
       <c r="T10">
-        <v>0.01110185531577567</v>
+        <v>0.008505460180961048</v>
       </c>
     </row>
   </sheetData>
